--- a/Matrix.xlsx
+++ b/Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristina\OneDrive\Documents\Class\Project\Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BBD75E-1087-4E57-9A93-7E756D5E30B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC822E95-139A-4583-A0A7-4E40067C119F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-255" windowWidth="29040" windowHeight="15840" xr2:uid="{D6777293-12CE-4540-82BC-DAC871540317}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
   <si>
     <t>Segment 1</t>
   </si>
@@ -1413,6 +1413,18 @@
       </rPr>
       <t xml:space="preserve">At least one interactive element </t>
     </r>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>CG will update data source info, add links, and edit to not say tract.</t>
+  </si>
+  <si>
+    <t>DE will merge in</t>
+  </si>
+  <si>
+    <t>Today</t>
   </si>
 </sst>
 </file>
@@ -2151,7 +2163,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2354,7 +2366,9 @@
       <c r="B9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
         <v>63</v>
@@ -2554,7 +2568,9 @@
       <c r="B18" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>102</v>
+      </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26" t="s">
         <v>39</v>
@@ -2600,7 +2616,9 @@
       <c r="B20" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="29"/>
+      <c r="C20" s="29" t="s">
+        <v>104</v>
+      </c>
       <c r="D20" s="30"/>
       <c r="E20" s="30" t="s">
         <v>40</v>
@@ -2880,7 +2898,9 @@
       <c r="B34" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="48"/>
+      <c r="C34" s="48" t="s">
+        <v>102</v>
+      </c>
       <c r="D34" s="49"/>
       <c r="E34" s="49" t="s">
         <v>90</v>
@@ -2900,7 +2920,9 @@
       <c r="B35" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="48"/>
+      <c r="C35" s="48" t="s">
+        <v>105</v>
+      </c>
       <c r="D35" s="49"/>
       <c r="E35" s="49" t="s">
         <v>91</v>

--- a/Matrix.xlsx
+++ b/Matrix.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristina\OneDrive\Documents\Class\Project\Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC822E95-139A-4583-A0A7-4E40067C119F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D271B44C-68CB-4022-AD8F-6FFD34ECA30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-255" windowWidth="29040" windowHeight="15840" xr2:uid="{D6777293-12CE-4540-82BC-DAC871540317}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Week 2" sheetId="3" r:id="rId1"/>
+    <sheet name="Week 1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="137">
   <si>
     <t>Segment 1</t>
   </si>
@@ -1425,6 +1426,519 @@
   </si>
   <si>
     <t>Today</t>
+  </si>
+  <si>
+    <t>Slides</t>
+  </si>
+  <si>
+    <t>Proficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentations are drafted in Google Slides. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All code in the main branch is productionready. </t>
+  </si>
+  <si>
+    <t>The main branch should include: ✓ All code necessary to perform exploratory analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning </t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <r>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Selected topic</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reason why they selected their topic✓ Description of their source of data ✓ Questions they hope to answer with the data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Description of the data exploration phase of the project</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Description of the analysis phase of the project</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Some code necessary to complete the machine learning portion of the project </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Description of the communication protocols </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outline of the project (this may include images, but should be easy to follow and digest)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>At least one branch for each team member</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Each team member has at least four commits for the duration of the second segment (eight total commits per person)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Description of preliminary data preprocessing </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Description of preliminary feature engineering and preliminary feature selection, including their decision-making process  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Description of how data was split into training and testing sets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Explanation of model choice, including </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Database stores static data for use during the project</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Database interfaces with the project in some format (e.g., scraping updates the database, or database connects to the model)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Includes at least two tables (or collections, if using MongoDB)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Includes at least one join using the database language (not including any joins in Pandas) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Includes at least one connection string (using SQLAlchemy or PyMongo)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Storyboard on Google Slide(s) ✓ Description of the tool(s) that will be used to create final dashboard </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Description of interactive element(s) </t>
+    </r>
+  </si>
+  <si>
+    <t>Dante</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Cristina</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +2018,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1670,11 +2184,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1836,6 +2531,153 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2156,14 +2998,371 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87DEE39-DF63-48A1-85B4-7CC34A67E968}">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" style="63" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" style="63" customWidth="1"/>
+    <col min="3" max="3" width="62.28515625" style="63" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="59"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55"/>
+      <c r="B1" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="86"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="56"/>
+      <c r="B2" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="87"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="57"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="88"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="67"/>
+      <c r="B5" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="89"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="67"/>
+      <c r="B6" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="89"/>
+    </row>
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="67"/>
+      <c r="B7" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="89"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="67"/>
+      <c r="B8" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="67"/>
+      <c r="B9" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="89"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="67"/>
+      <c r="B10" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="89"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="67"/>
+      <c r="B11" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="89"/>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="90"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="91"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="73"/>
+      <c r="B15" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="92"/>
+    </row>
+    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="73"/>
+      <c r="B16" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="92"/>
+    </row>
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="92"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
+      <c r="B18" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="92"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="73"/>
+      <c r="B19" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="92" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="92"/>
+    </row>
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
+      <c r="B21" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="92"/>
+    </row>
+    <row r="22" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+      <c r="B22" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="92"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="73"/>
+      <c r="B23" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="92"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="73"/>
+      <c r="B24" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="92"/>
+    </row>
+    <row r="25" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="74"/>
+      <c r="B25" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="93"/>
+    </row>
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="76"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="76"/>
+    </row>
+    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="78"/>
+      <c r="B29" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="78"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="78"/>
+      <c r="B30" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="78"/>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="79"/>
+      <c r="B31" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="79"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="94"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="83"/>
+      <c r="B33" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="95"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="83"/>
+      <c r="B34" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="95"/>
+    </row>
+    <row r="35" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="83"/>
+      <c r="B35" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="95"/>
+    </row>
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="83"/>
+      <c r="B36" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="95"/>
+    </row>
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="83"/>
+      <c r="B37" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="95" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="83"/>
+      <c r="B38" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="95"/>
+    </row>
+    <row r="39" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="83"/>
+      <c r="B39" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="95"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="98"/>
+    </row>
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="99"/>
+      <c r="B41" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="99"/>
+      <c r="B42" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="100"/>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="101"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="103"/>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="60"/>
+      <c r="C44" s="64"/>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A4:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F8A67A-377C-4352-982E-D7FD4633E3D0}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
